--- a/biology/Neurosciences/Tronc_cérébral/Tronc_cérébral.xlsx
+++ b/biology/Neurosciences/Tronc_cérébral/Tronc_cérébral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tronc_c%C3%A9r%C3%A9bral</t>
+          <t>Tronc_cérébral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tronc cérébral appartient au système nerveux central, et plus particulièrement à l'encéphale. Il est situé dans la fosse crânienne postérieure, sous le cerveau et en avant du cervelet. Il est structurellement continu avec la moelle épinière, qui commence à la première racine spinale. Le tronc cérébral est relié au cerveau, via les pédoncules cérébraux du mésencéphale, et au cervelet, via les pédoncules cérébelleux supérieurs (mésencéphale), moyens (pont) et inférieurs (moelle allongée). C'est également le lieu d'émergence de dix des douze paires de nerfs crâniens (de la IIIe paire à la XIIe).
 Le tronc cérébral est oblique en haut et en avant, et se compose de haut en bas :
@@ -488,8 +500,8 @@
 du pont (protubérance) ;
 de la moelle allongée (bulbe).
 Une partie des faces postérieures de la moelle allongée et du pont constitue le plancher du quatrième ventricule.
-Le tronc cérébral[1] est responsable de plusieurs fonctions dont la régulation de la respiration et du rythme cardiaque, la localisation des sons, etc. C'est également un centre de passage des voies motrices et sensitives, ainsi qu'un centre de contrôle de la douleur. Au cours du sommeil paradoxal, le tronc cérébral paralyse le corps, ce qui empêche le sujet de se lever pour « vivre ses rêves ».
-Les recherches du Dr Kevin Nelson tendent à montrer que  les stimulations initiales qui déclenchent les visions dites d'expériences proches de la mort (NDE) proviennent du tronc cérébral[2].
+Le tronc cérébral est responsable de plusieurs fonctions dont la régulation de la respiration et du rythme cardiaque, la localisation des sons, etc. C'est également un centre de passage des voies motrices et sensitives, ainsi qu'un centre de contrôle de la douleur. Au cours du sommeil paradoxal, le tronc cérébral paralyse le corps, ce qui empêche le sujet de se lever pour « vivre ses rêves ».
+Les recherches du Dr Kevin Nelson tendent à montrer que  les stimulations initiales qui déclenchent les visions dites d'expériences proches de la mort (NDE) proviennent du tronc cérébral.
 </t>
         </is>
       </c>
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tronc_c%C3%A9r%C3%A9bral</t>
+          <t>Tronc_cérébral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Origine embryologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours de la 4e semaine de développement embryonnaire, le tube neural se différencie en trois vésicules : le prosencéphale, le mésencéphale et le rhombencéphale. Lors de la 5e semaine, le rhombencéphale se différencie en métencéphale et myélencéphale, qui donneront respectivement le pont et le cervelet, et la moelle allongée. La vésicule mésencéphalique ne se différencie pas et constituera la partie haute du tronc cérébral.
 </t>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tronc_c%C3%A9r%C3%A9bral</t>
+          <t>Tronc_cérébral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Moelle allongée
-La moelle allongée (ou bulbe rachidien) est la partie inférieure du tronc cérébral. Elle est limitée en bas par la moelle spinale (au niveau de la première racine spinale) et en haut par le sillon pontomédullaire.
+          <t>Moelle allongée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La moelle allongée (ou bulbe rachidien) est la partie inférieure du tronc cérébral. Elle est limitée en bas par la moelle spinale (au niveau de la première racine spinale) et en haut par le sillon pontomédullaire.
 sur sa face médiale, elle se compose de deux cordons ventraux (ou pyramide), séparés par une fissure médiane ventrale (ou sillon médian). Les pyramides contiennent les fibres axonales du tractus corticospinal (ou tractus pyramidal), moteur.
 au niveau de la face latérale de la moelle allongée, on retrouve, de plus en plus latéralement :
 le sillon latéral ventral (ou sillon préolivaire), d’où émerge la XIIe paire de nerfs crâniens ;
@@ -562,15 +581,83 @@
 la face dorsale présente deux cordons dorsaux, séparés par le sillon dorsal médian. Ces cordons s’écartent en haut pour border le plancher du quatrième ventricule. Ce plancher contient, au niveau de la moelle allongée, les noyaux des nerfs crâniens X, XI et XII.
 Le sillon pontomédullaire est le lieu d’émergence de certains nerfs crâniens :
 le VI (nerf abducens), au-dessus des pyramides ;
-les nerfs VII (nerf facial), VIIbis (nerf intermédiaire) et VIII (nerf vestibulocochléaire), au niveau des fossettes latérales.
-Pont
-Le pont (ou protubérance annulaire) constitue la portion moyenne du tronc cérébral. Il est limité en bas par le sillon pontomédullaire et en haut par le sillon pontopédonculaire.
+les nerfs VII (nerf facial), VIIbis (nerf intermédiaire) et VIII (nerf vestibulocochléaire), au niveau des fossettes latérales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tronc_cérébral</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tronc_c%C3%A9r%C3%A9bral</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description anatomique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pont</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le pont (ou protubérance annulaire) constitue la portion moyenne du tronc cérébral. Il est limité en bas par le sillon pontomédullaire et en haut par le sillon pontopédonculaire.
 La face ventrale du pont est creusée médialement par la gouttière médiane ventrale (ou sillon basilaire) dans laquelle circule l’artère basilaire. Elle est également constituée de nombreux noyaux de substance grise, appelés noyaux du pont.
 Entre les faces ventrale et latérale, on distingue le lieu d’émergence du nerf trijumeau (Ve paire) par deux racines, une sensitive (la plus grosse) et une motrice.
 Au niveau de la face latérale, on retrouve le pédoncule cérébelleux moyen reliant le pont au cervelet.
-La face dorsale du pont constitue le triangle supérieur du plancher du quatrième ventricule et contient les noyaux des nerfs crâniens VI, V et VII bis.
-Mésencéphale
-Le mésencéphale forme la région supérieure du tronc cérébral, constituant le cerveau moyen[3]. Il est limité en bas par le sillon pontopédonculaire et en haut par le tractus optique (en). Il est constitué de trois parties principales : les deux pédoncules cérébraux, le tegmentum mesencephali (ou calotte du mésencéphale)[4] et le tectum mesencephali (ou toit du mécencéphale)[5].
+La face dorsale du pont constitue le triangle supérieur du plancher du quatrième ventricule et contient les noyaux des nerfs crâniens VI, V et VII bis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tronc_cérébral</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tronc_c%C3%A9r%C3%A9bral</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description anatomique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mésencéphale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le mésencéphale forme la région supérieure du tronc cérébral, constituant le cerveau moyen. Il est limité en bas par le sillon pontopédonculaire et en haut par le tractus optique (en). Il est constitué de trois parties principales : les deux pédoncules cérébraux, le tegmentum mesencephali (ou calotte du mésencéphale) et le tectum mesencephali (ou toit du mécencéphale).
 La face ventrale présente deux pédoncules cérébraux (formés par le crus cerebri et le tegmentum) obliques en haut en dehors et en avant. Ces pédoncules sont séparés médialement par la fosse inter-pédonculaire (ou substance perforée postérieure), qui contient les corps mamillaires et le pédoncule hypophysaire (cependant, ces deux éléments appartiennent au diencéphale et non au tronc cérébral). Cette fosse est également le lieu d’émergence du nerf oculomoteur (nerf III).
 Sur la face dorsale, on retrouve la lame tectale (ou lame quadrijumelle ou tectum) formée de quatre colliculi (ou tubercules quadrijumeaux), deux supérieurs et deux inférieurs.
 On retrouve, au niveau du mésencéphale, plusieurs amas de substance grise dont :
@@ -580,31 +667,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Tronc_c%C3%A9r%C3%A9bral</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tronc_cérébral</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tronc_c%C3%A9r%C3%A9bral</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La vascularisation du tronc cérébral est assurée par différentes artères :
 pour la moelle allongée :
@@ -621,31 +710,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tronc_c%C3%A9r%C3%A9bral</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tronc_cérébral</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tronc_c%C3%A9r%C3%A9bral</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Images</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vue ventrale du tronc cérébral.
